--- a/Case/test.xlsx
+++ b/Case/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22511" windowHeight="8412"/>
+    <workbookView windowWidth="19920" windowHeight="9540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>用例ID</t>
   </si>
@@ -25,9 +25,6 @@
     <t>url</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>参数值</t>
   </si>
   <si>
@@ -43,38 +40,49 @@
     <t>结果</t>
   </si>
   <si>
-    <t>图灵api接口</t>
+    <t>图灵api接口GET请求</t>
   </si>
   <si>
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
-    <t>sasa</t>
-  </si>
-  <si>
-    <t>你好啊</t>
+    <t>key=305122eaa84142aa8b076a962ca87523,info=笑话</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>"code":100000</t>
+  </si>
+  <si>
+    <t>图灵api接口get请求</t>
+  </si>
+  <si>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>图灵api接口Get请求</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>图灵api接口POST请求</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>305122eaa84142aa8b076a962ca87523</t>
-  </si>
-  <si>
-    <t>笑话</t>
-  </si>
-  <si>
-    <t>故事</t>
-  </si>
-  <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tuling123.com/openapi/api
-</t>
+    <t>图灵api接口PosT请求</t>
+  </si>
+  <si>
+    <t>PosT</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>lall</t>
   </si>
 </sst>
 </file>
@@ -87,7 +95,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +104,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -104,6 +164,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -111,19 +172,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,28 +227,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,83 +243,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,30 +448,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,11 +466,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +522,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -547,6 +539,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,160 +568,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1035,31 +1018,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="41.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="46.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="51.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="13.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
     <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,155 +1063,154 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1">
-        <v>40001</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1">
-        <v>100000</v>
-      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="1">
-        <v>40007</v>
-      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1">
-        <v>40007</v>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1">
-        <v>40001</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>40002</v>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="你好啊" tooltip="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E3" r:id="rId2" display="笑话" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E4" r:id="rId1" display="故事"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/Case/test.xlsx
+++ b/Case/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19920" windowHeight="9540"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>用例ID</t>
   </si>
@@ -43,22 +43,31 @@
     <t>图灵api接口GET请求</t>
   </si>
   <si>
+    <t>https://www.baidu.com/s</t>
+  </si>
+  <si>
+    <t>wd=测试</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>图灵api接口get请求</t>
+  </si>
+  <si>
     <t>http://www.tuling123.com/openapi/api</t>
   </si>
   <si>
     <t>key=305122eaa84142aa8b076a962ca87523,info=笑话</t>
   </si>
   <si>
-    <t>GET</t>
+    <t>Get</t>
   </si>
   <si>
     <t>"code":100000</t>
-  </si>
-  <si>
-    <t>图灵api接口get请求</t>
-  </si>
-  <si>
-    <t>Get</t>
   </si>
   <si>
     <t>图灵api接口Get请求</t>
@@ -90,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -104,6 +113,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -112,83 +159,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,6 +195,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -210,39 +226,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +457,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,6 +510,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,65 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,141 +577,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1027,17 +1039,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="21.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="41.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="51.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="21.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="41.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="51.8916666666667" customWidth="1"/>
     <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="13.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="14.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="13.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.225" customWidth="1"/>
     <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1074,7 +1086,7 @@
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
@@ -1096,16 +1108,16 @@
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -1114,19 +1126,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1135,19 +1147,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1155,19 +1167,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1175,19 +1187,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1195,22 +1207,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://www.baidu.com/s" tooltip="https://www.baidu.com/s"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
